--- a/biology/Microbiologie/Enchelyomorpha_vermicularis/Enchelyomorpha_vermicularis.xlsx
+++ b/biology/Microbiologie/Enchelyomorpha_vermicularis/Enchelyomorpha_vermicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enchelyomorpha · Enchelyomorphidae
 Enchelyomorpha vermicularis, unique représentant du genre Enchelyomorpha et de la famille des Enchelyomorphidae, est une espèce de Ciliés de l’ordre des Suctorida ou des Endogenida selon les classifications.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Enchelyomorpha est dérivé du grec εγχέλυς / enchélys, « anguille », et μορφή / morfí, « forme », en référence à la forme conique de ce cilié, qui peut faire penser à une aiguille.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Alfred Kahl (1930), Enchelyomorpha a une taille de 30 à 45 μm. Sa forme est finement conique, aplatie dorso-ventralement et légèrement incurvée ; la partie arrière est fortement élargie ; la partie avant est	 étroite et légèrement annelée, les cils étant disposés dans les sillons annulaires. La moitié antérieure possède des tentacules non rétractiles, dispersés, courts et munis d’un bouton terminal. Il n’y a pas de bouche. Le noyau est composé de morceaux rayonnants et d'un corps interne. Une vacuole terminale contractile, remplit parfois complètement l'extrémité postérieure arrondie[1].
-Kahl se pose la question de savoir quelle est la nature véritable de cet organisme quand il dit : « ce n’est pas un véritable « infusoire », mais soit l’essaim d'une espèce de Suctoria sessile encore inconnue, soit un Ciliophore étroitement apparenté à un Suctoria sans forme sessile (c'est-à-dire sans stade fixé à un support) »[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Alfred Kahl (1930), Enchelyomorpha a une taille de 30 à 45 μm. Sa forme est finement conique, aplatie dorso-ventralement et légèrement incurvée ; la partie arrière est fortement élargie ; la partie avant est	 étroite et légèrement annelée, les cils étant disposés dans les sillons annulaires. La moitié antérieure possède des tentacules non rétractiles, dispersés, courts et munis d’un bouton terminal. Il n’y a pas de bouche. Le noyau est composé de morceaux rayonnants et d'un corps interne. Une vacuole terminale contractile, remplit parfois complètement l'extrémité postérieure arrondie.
+Kahl se pose la question de savoir quelle est la nature véritable de cet organisme quand il dit : « ce n’est pas un véritable « infusoire », mais soit l’essaim d'une espèce de Suctoria sessile encore inconnue, soit un Ciliophore étroitement apparenté à un Suctoria sans forme sessile (c'est-à-dire sans stade fixé à un support) ». 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kahl a observé Enchelyomorpha dans des eaux septiques, alcalines ou putrides[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kahl a observé Enchelyomorpha dans des eaux septiques, alcalines ou putrides. 
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement décrite dans le genre Enchelys sous le protonyme Enchelys vermicularis Smith, 1899. Alfred Kahl l'a déplacée en 1930 dans le genre monotypique Enchelyomorpha[1]. La famille monogénérique des Enchelyomorphidae a été proposée en 1992 par Hannes Augustin (d) et Wilhelm Foissner (de)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement décrite dans le genre Enchelys sous le protonyme Enchelys vermicularis Smith, 1899. Alfred Kahl l'a déplacée en 1930 dans le genre monotypique Enchelyomorpha. La famille monogénérique des Enchelyomorphidae a été proposée en 1992 par Hannes Augustin (d) et Wilhelm Foissner (de).
 </t>
         </is>
       </c>
